--- a/country.xlsx
+++ b/country.xlsx
@@ -422,6 +422,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
       <c r="B1" t="inlineStr">
         <is>
           <t>Monthly data for France</t>

--- a/country.xlsx
+++ b/country.xlsx
@@ -424,12 +424,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>LBN</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Monthly data for France</t>
+          <t>Monthly data for Lebanon</t>
         </is>
       </c>
     </row>
